--- a/Cardsort Magic.xlsx
+++ b/Cardsort Magic.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marianne\Desktop\UNI\Speciale\PDP10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA38398-3D72-4F33-9F2A-A66ED96C6351}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC397AA-F080-4649-93AD-FDB2D5AD9227}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="8" xr2:uid="{AAE8460F-FD77-44BA-B98E-27E96CABFC5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="11" xr2:uid="{AAE8460F-FD77-44BA-B98E-27E96CABFC5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Original indeling" sheetId="1" r:id="rId1"/>
     <sheet name="Standardized Labels" sheetId="2" r:id="rId2"/>
     <sheet name="Ark10" sheetId="10" r:id="rId3"/>
-    <sheet name="Ark6" sheetId="6" r:id="rId4"/>
-    <sheet name="Ark3" sheetId="3" r:id="rId5"/>
-    <sheet name="Ark7" sheetId="7" r:id="rId6"/>
-    <sheet name="Ark8" sheetId="8" r:id="rId7"/>
-    <sheet name="Ark9" sheetId="9" r:id="rId8"/>
-    <sheet name="Ark5" sheetId="5" r:id="rId9"/>
-    <sheet name="Ark4" sheetId="4" r:id="rId10"/>
-    <sheet name="Ark11" sheetId="11" r:id="rId11"/>
+    <sheet name="Ark1" sheetId="12" r:id="rId4"/>
+    <sheet name="Ark6" sheetId="6" r:id="rId5"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId6"/>
+    <sheet name="Ark7" sheetId="7" r:id="rId7"/>
+    <sheet name="Ark8" sheetId="8" r:id="rId8"/>
+    <sheet name="Ark9" sheetId="9" r:id="rId9"/>
+    <sheet name="Ark5" sheetId="5" r:id="rId10"/>
+    <sheet name="Ark4" sheetId="4" r:id="rId11"/>
+    <sheet name="Ark11" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="76">
   <si>
     <t>Sharing</t>
   </si>
@@ -1665,6 +1665,229 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C143A975-2A66-4AE0-9D64-AD3CC265A0B7}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0F8AEF-BC76-4E56-9724-CFA0F4DAE38E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -1827,12 +2050,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19408C3D-13C0-4431-A557-B54461287D18}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2262,22 +2485,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
       </c>
       <c r="G20" t="s">
         <v>69</v>
@@ -2285,22 +2508,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
         <v>69</v>
@@ -2308,22 +2531,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
         <v>69</v>
@@ -2331,22 +2554,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>61</v>
+        <v>15</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="G23" t="s">
         <v>69</v>
@@ -2354,19 +2577,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
         <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>1</v>
@@ -2375,32 +2598,32 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>69</v>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -2423,22 +2646,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="G28" t="s">
         <v>62</v>
@@ -2446,22 +2669,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
       </c>
       <c r="G29" t="s">
         <v>62</v>
@@ -2469,22 +2692,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s">
         <v>62</v>
@@ -2492,22 +2715,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
         <v>62</v>
@@ -2515,22 +2738,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G32" t="s">
         <v>62</v>
@@ -2538,22 +2761,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="G33" t="s">
         <v>62</v>
@@ -2561,22 +2784,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
+        <v>73</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
       </c>
       <c r="G34" t="s">
         <v>62</v>
@@ -2584,22 +2807,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
         <v>62</v>
@@ -2607,22 +2830,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s">
         <v>62</v>
@@ -2630,53 +2853,53 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
+        <v>8</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="G37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>62</v>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -2685,13 +2908,13 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
         <v>16</v>
@@ -2699,22 +2922,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G41" t="s">
         <v>16</v>
@@ -2722,22 +2945,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" t="s">
-        <v>61</v>
+        <v>8</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="G42" t="s">
         <v>16</v>
@@ -2745,19 +2968,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>1</v>
@@ -2765,6 +2988,9 @@
       <c r="G43" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -2844,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76FDC2-5C25-48C5-88EE-4BA54560FF4D}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" activeCellId="2" sqref="A34:XFD34 A5:XFD5 A21:XFD21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3201,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3881,7 +4107,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4038,6 +4264,467 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E402DB62-B8D9-476E-BBE6-1236DE56D43C}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C7ECD4-404E-45B2-BFDF-174926821B15}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -4198,7 +4885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC21B328-42B6-4A0F-884D-77034C697BAE}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -4551,7 +5238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5A746C-89CB-409E-A28A-BD84F01C7761}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -4872,7 +5559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE104E1C-F405-4EBD-A65E-F833314008F9}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -5014,7 +5701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDAA8B8-450A-4ED5-9E84-0828DEF07121}">
   <dimension ref="A1:G46"/>
   <sheetViews>
@@ -5913,227 +6600,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C143A975-2A66-4AE0-9D64-AD3CC265A0B7}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Cardsort Magic.xlsx
+++ b/Cardsort Magic.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marianne\Desktop\UNI\Speciale\PDP10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC397AA-F080-4649-93AD-FDB2D5AD9227}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3173B88F-D07F-45D5-9997-F182C57A7A3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="11" xr2:uid="{AAE8460F-FD77-44BA-B98E-27E96CABFC5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" firstSheet="1" activeTab="3" xr2:uid="{AAE8460F-FD77-44BA-B98E-27E96CABFC5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Original indeling" sheetId="1" r:id="rId1"/>
     <sheet name="Standardized Labels" sheetId="2" r:id="rId2"/>
-    <sheet name="Ark10" sheetId="10" r:id="rId3"/>
-    <sheet name="Ark1" sheetId="12" r:id="rId4"/>
-    <sheet name="Ark6" sheetId="6" r:id="rId5"/>
-    <sheet name="Ark3" sheetId="3" r:id="rId6"/>
-    <sheet name="Ark7" sheetId="7" r:id="rId7"/>
-    <sheet name="Ark8" sheetId="8" r:id="rId8"/>
-    <sheet name="Ark9" sheetId="9" r:id="rId9"/>
-    <sheet name="Ark5" sheetId="5" r:id="rId10"/>
-    <sheet name="Ark4" sheetId="4" r:id="rId11"/>
-    <sheet name="Ark11" sheetId="11" r:id="rId12"/>
+    <sheet name="Ark2" sheetId="13" r:id="rId3"/>
+    <sheet name="Ark12" sheetId="14" r:id="rId4"/>
+    <sheet name="Ark10" sheetId="10" r:id="rId5"/>
+    <sheet name="Ark1" sheetId="12" r:id="rId6"/>
+    <sheet name="Ark6" sheetId="6" r:id="rId7"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId8"/>
+    <sheet name="Ark7" sheetId="7" r:id="rId9"/>
+    <sheet name="Ark8" sheetId="8" r:id="rId10"/>
+    <sheet name="Ark9" sheetId="9" r:id="rId11"/>
+    <sheet name="Ark5" sheetId="5" r:id="rId12"/>
+    <sheet name="Ark4" sheetId="4" r:id="rId13"/>
+    <sheet name="Ark11" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="83">
   <si>
     <t>Sharing</t>
   </si>
@@ -269,13 +271,34 @@
   </si>
   <si>
     <t>FInding TonePrints</t>
+  </si>
+  <si>
+    <t>Personal input</t>
+  </si>
+  <si>
+    <t>Social Mediea</t>
+  </si>
+  <si>
+    <t>Pedal related search</t>
+  </si>
+  <si>
+    <t>TonePrint related search</t>
+  </si>
+  <si>
+    <t>Ppularity of TonePrint</t>
+  </si>
+  <si>
+    <t>Upload / Download</t>
+  </si>
+  <si>
+    <t>Communcation with TC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,13 +312,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -310,12 +347,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1665,6 +1705,1049 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE104E1C-F405-4EBD-A65E-F833314008F9}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDAA8B8-450A-4ED5-9E84-0828DEF07121}">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <f>SUM(G21:G44)</f>
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C143A975-2A66-4AE0-9D64-AD3CC265A0B7}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -1887,7 +2970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0F8AEF-BC76-4E56-9724-CFA0F4DAE38E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -2050,11 +3133,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19408C3D-13C0-4431-A557-B54461287D18}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -3070,8 +4153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76FDC2-5C25-48C5-88EE-4BA54560FF4D}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A40" activeCellId="1" sqref="A22:XFD22 A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4103,6 +5186,1119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B2613-86F5-47E3-AC55-2707361666FE}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9104E62-E07D-4E3B-95A7-CD4B07C4339D}">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BFF37C-C4C0-4FBE-85E5-FF81F506DDF3}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -4263,7 +6459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E402DB62-B8D9-476E-BBE6-1236DE56D43C}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -4724,7 +6920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C7ECD4-404E-45B2-BFDF-174926821B15}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -4885,7 +7081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC21B328-42B6-4A0F-884D-77034C697BAE}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -5238,12 +7434,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5A746C-89CB-409E-A28A-BD84F01C7761}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5557,1047 +7753,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE104E1C-F405-4EBD-A65E-F833314008F9}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDAA8B8-450A-4ED5-9E84-0828DEF07121}">
-  <dimension ref="A1:G46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G46">
-        <f>SUM(G21:G44)</f>
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Cardsort Magic.xlsx
+++ b/Cardsort Magic.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marianne\Desktop\UNI\Speciale\PDP10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3173B88F-D07F-45D5-9997-F182C57A7A3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5EEA47-0C59-47E3-A488-F1B69FAB45C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" firstSheet="1" activeTab="3" xr2:uid="{AAE8460F-FD77-44BA-B98E-27E96CABFC5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{AAE8460F-FD77-44BA-B98E-27E96CABFC5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Original indeling" sheetId="1" r:id="rId1"/>
     <sheet name="Standardized Labels" sheetId="2" r:id="rId2"/>
-    <sheet name="Ark2" sheetId="13" r:id="rId3"/>
-    <sheet name="Ark12" sheetId="14" r:id="rId4"/>
-    <sheet name="Ark10" sheetId="10" r:id="rId5"/>
-    <sheet name="Ark1" sheetId="12" r:id="rId6"/>
-    <sheet name="Ark6" sheetId="6" r:id="rId7"/>
-    <sheet name="Ark3" sheetId="3" r:id="rId8"/>
-    <sheet name="Ark7" sheetId="7" r:id="rId9"/>
-    <sheet name="Ark8" sheetId="8" r:id="rId10"/>
-    <sheet name="Ark9" sheetId="9" r:id="rId11"/>
-    <sheet name="Ark5" sheetId="5" r:id="rId12"/>
-    <sheet name="Ark4" sheetId="4" r:id="rId13"/>
-    <sheet name="Ark11" sheetId="11" r:id="rId14"/>
+    <sheet name="Ark13" sheetId="15" r:id="rId3"/>
+    <sheet name="Ark2" sheetId="13" r:id="rId4"/>
+    <sheet name="Ark12" sheetId="14" r:id="rId5"/>
+    <sheet name="Ark10" sheetId="10" r:id="rId6"/>
+    <sheet name="Ark1" sheetId="12" r:id="rId7"/>
+    <sheet name="Ark6" sheetId="6" r:id="rId8"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId9"/>
+    <sheet name="Ark7" sheetId="7" r:id="rId10"/>
+    <sheet name="Ark8" sheetId="8" r:id="rId11"/>
+    <sheet name="Ark9" sheetId="9" r:id="rId12"/>
+    <sheet name="Ark5" sheetId="5" r:id="rId13"/>
+    <sheet name="Ark4" sheetId="4" r:id="rId14"/>
+    <sheet name="Ark11" sheetId="11" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="83">
   <si>
     <t>Sharing</t>
   </si>
@@ -1705,6 +1706,327 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5A746C-89CB-409E-A28A-BD84F01C7761}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE104E1C-F405-4EBD-A65E-F833314008F9}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1846,7 +2168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDAA8B8-450A-4ED5-9E84-0828DEF07121}">
   <dimension ref="A1:G46"/>
   <sheetViews>
@@ -2747,12 +3069,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C143A975-2A66-4AE0-9D64-AD3CC265A0B7}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2970,12 +3292,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0F8AEF-BC76-4E56-9724-CFA0F4DAE38E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3133,7 +3455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19408C3D-13C0-4431-A557-B54461287D18}">
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -4153,8 +4475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76FDC2-5C25-48C5-88EE-4BA54560FF4D}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A40" activeCellId="1" sqref="A22:XFD22 A40:XFD40"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" activeCellId="2" sqref="A14:XFD14 A15:XFD15 A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5186,6 +5508,602 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1707DEBF-FD4A-496B-AA3B-595D89B678DF}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B2613-86F5-47E3-AC55-2707361666FE}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -5719,11 +6637,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9104E62-E07D-4E3B-95A7-CD4B07C4339D}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -6298,7 +7216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BFF37C-C4C0-4FBE-85E5-FF81F506DDF3}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -6459,7 +7377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E402DB62-B8D9-476E-BBE6-1236DE56D43C}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -6920,11 +7838,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C7ECD4-404E-45B2-BFDF-174926821B15}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7081,12 +8001,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC21B328-42B6-4A0F-884D-77034C697BAE}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7432,325 +8352,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5A746C-89CB-409E-A28A-BD84F01C7761}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Cardsort Magic.xlsx
+++ b/Cardsort Magic.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marianne\Desktop\UNI\Speciale\PDP10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5EEA47-0C59-47E3-A488-F1B69FAB45C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93C6579-71B0-48F0-9308-6CA57F3EC0EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{AAE8460F-FD77-44BA-B98E-27E96CABFC5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Original indeling" sheetId="1" r:id="rId1"/>
     <sheet name="Standardized Labels" sheetId="2" r:id="rId2"/>
-    <sheet name="Ark13" sheetId="15" r:id="rId3"/>
-    <sheet name="Ark2" sheetId="13" r:id="rId4"/>
-    <sheet name="Ark12" sheetId="14" r:id="rId5"/>
-    <sheet name="Ark10" sheetId="10" r:id="rId6"/>
-    <sheet name="Ark1" sheetId="12" r:id="rId7"/>
-    <sheet name="Ark6" sheetId="6" r:id="rId8"/>
-    <sheet name="Ark3" sheetId="3" r:id="rId9"/>
-    <sheet name="Ark7" sheetId="7" r:id="rId10"/>
-    <sheet name="Ark8" sheetId="8" r:id="rId11"/>
-    <sheet name="Ark9" sheetId="9" r:id="rId12"/>
-    <sheet name="Ark5" sheetId="5" r:id="rId13"/>
-    <sheet name="Ark4" sheetId="4" r:id="rId14"/>
-    <sheet name="Ark11" sheetId="11" r:id="rId15"/>
+    <sheet name="Ark15" sheetId="17" r:id="rId3"/>
+    <sheet name="Ark13" sheetId="15" r:id="rId4"/>
+    <sheet name="Ark14" sheetId="16" r:id="rId5"/>
+    <sheet name="Ark2" sheetId="13" r:id="rId6"/>
+    <sheet name="Ark12" sheetId="14" r:id="rId7"/>
+    <sheet name="Ark10" sheetId="10" r:id="rId8"/>
+    <sheet name="Ark1" sheetId="12" r:id="rId9"/>
+    <sheet name="Ark6" sheetId="6" r:id="rId10"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId11"/>
+    <sheet name="Ark7" sheetId="7" r:id="rId12"/>
+    <sheet name="Ark8" sheetId="8" r:id="rId13"/>
+    <sheet name="Ark9" sheetId="9" r:id="rId14"/>
+    <sheet name="Ark5" sheetId="5" r:id="rId15"/>
+    <sheet name="Ark4" sheetId="4" r:id="rId16"/>
+    <sheet name="Ark11" sheetId="11" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="83">
   <si>
     <t>Sharing</t>
   </si>
@@ -1706,6 +1708,522 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C7ECD4-404E-45B2-BFDF-174926821B15}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC21B328-42B6-4A0F-884D-77034C697BAE}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5A746C-89CB-409E-A28A-BD84F01C7761}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -2026,7 +2544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE104E1C-F405-4EBD-A65E-F833314008F9}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -2168,7 +2686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDAA8B8-450A-4ED5-9E84-0828DEF07121}">
   <dimension ref="A1:G46"/>
   <sheetViews>
@@ -3069,7 +3587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C143A975-2A66-4AE0-9D64-AD3CC265A0B7}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -3292,7 +3810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0F8AEF-BC76-4E56-9724-CFA0F4DAE38E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -3455,7 +3973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19408C3D-13C0-4431-A557-B54461287D18}">
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -4475,8 +4993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76FDC2-5C25-48C5-88EE-4BA54560FF4D}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" activeCellId="2" sqref="A14:XFD14 A15:XFD15 A36:XFD36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5508,10 +6026,355 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCBD506-C211-4EC6-917C-032D1EE13522}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1707DEBF-FD4A-496B-AA3B-595D89B678DF}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -6103,7 +6966,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F221D3-3D9F-49DC-B267-9AB63821AFA4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B2613-86F5-47E3-AC55-2707361666FE}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -6637,7 +7512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9104E62-E07D-4E3B-95A7-CD4B07C4339D}">
   <dimension ref="A1:K29"/>
   <sheetViews>
@@ -7216,7 +8091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BFF37C-C4C0-4FBE-85E5-FF81F506DDF3}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -7377,7 +8252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E402DB62-B8D9-476E-BBE6-1236DE56D43C}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -7836,520 +8711,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C7ECD4-404E-45B2-BFDF-174926821B15}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC21B328-42B6-4A0F-884D-77034C697BAE}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Cardsort Magic.xlsx
+++ b/Cardsort Magic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marianne\Desktop\UNI\Speciale\PDP10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93C6579-71B0-48F0-9308-6CA57F3EC0EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A538AFE6-2AB2-4C12-9FE1-1EDFDB941734}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{AAE8460F-FD77-44BA-B98E-27E96CABFC5B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{AAE8460F-FD77-44BA-B98E-27E96CABFC5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Original indeling" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="83">
   <si>
     <t>Sharing</t>
   </si>
@@ -4993,8 +4993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76FDC2-5C25-48C5-88EE-4BA54560FF4D}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A9" activeCellId="9" sqref="A2:XFD2 A7:XFD7 A22:XFD22 A26:XFD26 A33:XFD33 A40:XFD40 A41:XFD41 A38:XFD38 A20:XFD20 A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6029,7 +6029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCBD506-C211-4EC6-917C-032D1EE13522}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -6968,12 +6968,253 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F221D3-3D9F-49DC-B267-9AB63821AFA4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7517,7 +7758,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
